--- a/code/DNtoPN.xlsx
+++ b/code/DNtoPN.xlsx
@@ -325,7 +325,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -510,8 +510,130 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -523,7 +645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -565,6 +687,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -604,30 +732,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -952,31 +1065,31 @@
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
+      <c r="A2" s="24">
         <v>16</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="23">
         <v>16.399999999999999</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="23">
         <v>25</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="27" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="23" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="26"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
@@ -986,14 +1099,14 @@
       <c r="G3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="16"/>
+      <c r="H3" s="18"/>
       <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="26"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1003,14 +1116,14 @@
       <c r="G4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="16"/>
+      <c r="H4" s="18"/>
       <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="26"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1020,14 +1133,14 @@
       <c r="G5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="16"/>
+      <c r="H5" s="18"/>
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="26"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1037,20 +1150,20 @@
       <c r="G6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="17"/>
+      <c r="H6" s="19"/>
       <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18">
+      <c r="A7" s="20">
         <v>12</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="17">
         <v>100</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="17">
         <v>25</v>
       </c>
-      <c r="D7" s="26"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="5" t="s">
         <v>8</v>
       </c>
@@ -1060,16 +1173,16 @@
       <c r="G7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="17" t="s">
         <v>13</v>
       </c>
       <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="26"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="5" t="s">
         <v>10</v>
       </c>
@@ -1079,14 +1192,14 @@
       <c r="G8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="16"/>
+      <c r="H8" s="18"/>
       <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="26"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="5" t="s">
         <v>11</v>
       </c>
@@ -1096,14 +1209,14 @@
       <c r="G9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="16"/>
+      <c r="H9" s="18"/>
       <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="26"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="28"/>
       <c r="E10" s="5" t="s">
         <v>14</v>
       </c>
@@ -1113,14 +1226,14 @@
       <c r="G10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="16"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="26"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="5" t="s">
         <v>15</v>
       </c>
@@ -1130,14 +1243,14 @@
       <c r="G11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="16"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="26"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="5" t="s">
         <v>16</v>
       </c>
@@ -1147,7 +1260,7 @@
       <c r="G12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="17"/>
+      <c r="H12" s="19"/>
       <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1160,7 +1273,7 @@
       <c r="C13" s="6">
         <v>25</v>
       </c>
-      <c r="D13" s="26"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="5" t="s">
         <v>18</v>
       </c>
@@ -1176,16 +1289,16 @@
       <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+      <c r="A14" s="24">
         <v>33</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="23">
         <v>16</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="23">
         <v>50</v>
       </c>
-      <c r="D14" s="26"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="5" t="s">
         <v>20</v>
       </c>
@@ -1195,16 +1308,16 @@
       <c r="G14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="23" t="s">
         <v>19</v>
       </c>
       <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="26"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="5" t="s">
         <v>21</v>
       </c>
@@ -1214,14 +1327,14 @@
       <c r="G15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="16"/>
+      <c r="H15" s="18"/>
       <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="26"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="28"/>
       <c r="E16" s="5" t="s">
         <v>22</v>
       </c>
@@ -1231,14 +1344,14 @@
       <c r="G16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="16"/>
+      <c r="H16" s="18"/>
       <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="26"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="28"/>
       <c r="E17" s="5" t="s">
         <v>8</v>
       </c>
@@ -1248,14 +1361,14 @@
       <c r="G17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="16"/>
+      <c r="H17" s="18"/>
       <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="26"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="5" t="s">
         <v>10</v>
       </c>
@@ -1265,20 +1378,20 @@
       <c r="G18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="17"/>
+      <c r="H18" s="19"/>
       <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18">
+      <c r="A19" s="20">
         <v>33</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="17">
         <v>40</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="17">
         <v>50</v>
       </c>
-      <c r="D19" s="26"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="5" t="s">
         <v>20</v>
       </c>
@@ -1288,16 +1401,16 @@
       <c r="G19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="17" t="s">
         <v>23</v>
       </c>
       <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="26"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="5" t="s">
         <v>21</v>
       </c>
@@ -1307,14 +1420,14 @@
       <c r="G20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="16"/>
+      <c r="H20" s="18"/>
       <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="26"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="5" t="s">
         <v>22</v>
       </c>
@@ -1324,14 +1437,14 @@
       <c r="G21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="16"/>
+      <c r="H21" s="18"/>
       <c r="I21" s="10"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="26"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="5" t="s">
         <v>8</v>
       </c>
@@ -1341,14 +1454,14 @@
       <c r="G22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="16"/>
+      <c r="H22" s="18"/>
       <c r="I22" s="10"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="26"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="5" t="s">
         <v>24</v>
       </c>
@@ -1358,14 +1471,14 @@
       <c r="G23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H23" s="16"/>
+      <c r="H23" s="18"/>
       <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="26"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="28"/>
       <c r="E24" s="5" t="s">
         <v>25</v>
       </c>
@@ -1375,14 +1488,14 @@
       <c r="G24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H24" s="16"/>
+      <c r="H24" s="18"/>
       <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="26"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="28"/>
       <c r="E25" s="5" t="s">
         <v>26</v>
       </c>
@@ -1392,20 +1505,20 @@
       <c r="G25" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="17"/>
+      <c r="H25" s="19"/>
       <c r="I25" s="10"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18">
+      <c r="A26" s="20">
         <v>33</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="17">
         <v>63</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="17">
         <v>50</v>
       </c>
-      <c r="D26" s="26"/>
+      <c r="D26" s="28"/>
       <c r="E26" s="5" t="s">
         <v>28</v>
       </c>
@@ -1415,16 +1528,16 @@
       <c r="G26" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="17" t="s">
         <v>27</v>
       </c>
       <c r="I26" s="10"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="26"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="28"/>
       <c r="E27" s="5" t="s">
         <v>30</v>
       </c>
@@ -1434,14 +1547,14 @@
       <c r="G27" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="16"/>
+      <c r="H27" s="18"/>
       <c r="I27" s="10"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="26"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="28"/>
       <c r="E28" s="5" t="s">
         <v>31</v>
       </c>
@@ -1451,20 +1564,20 @@
       <c r="G28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H28" s="17"/>
+      <c r="H28" s="19"/>
       <c r="I28" s="10"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="18">
+      <c r="A29" s="20">
         <v>33</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="17">
         <v>160</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="17">
         <v>50</v>
       </c>
-      <c r="D29" s="26"/>
+      <c r="D29" s="28"/>
       <c r="E29" s="5" t="s">
         <v>33</v>
       </c>
@@ -1474,16 +1587,16 @@
       <c r="G29" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="17" t="s">
         <v>32</v>
       </c>
       <c r="I29" s="10"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="26"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="28"/>
       <c r="E30" s="5" t="s">
         <v>34</v>
       </c>
@@ -1493,14 +1606,14 @@
       <c r="G30" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H30" s="16"/>
+      <c r="H30" s="18"/>
       <c r="I30" s="10"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="19"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="26"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="28"/>
       <c r="E31" s="5" t="s">
         <v>35</v>
       </c>
@@ -1510,14 +1623,14 @@
       <c r="G31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H31" s="16"/>
+      <c r="H31" s="18"/>
       <c r="I31" s="10"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="26"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="28"/>
       <c r="E32" s="5" t="s">
         <v>36</v>
       </c>
@@ -1527,20 +1640,20 @@
       <c r="G32" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H32" s="17"/>
+      <c r="H32" s="19"/>
       <c r="I32" s="10"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="18">
+      <c r="A33" s="20">
         <v>40</v>
       </c>
-      <c r="B33" s="15">
+      <c r="B33" s="17">
         <v>16</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="17">
         <v>80</v>
       </c>
-      <c r="D33" s="26"/>
+      <c r="D33" s="28"/>
       <c r="E33" s="5" t="s">
         <v>20</v>
       </c>
@@ -1550,16 +1663,16 @@
       <c r="G33" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="H33" s="17" t="s">
         <v>37</v>
       </c>
       <c r="I33" s="10"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="19"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="26"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="28"/>
       <c r="E34" s="5" t="s">
         <v>38</v>
       </c>
@@ -1569,14 +1682,14 @@
       <c r="G34" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H34" s="16"/>
+      <c r="H34" s="18"/>
       <c r="I34" s="10"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="19"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="26"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="28"/>
       <c r="E35" s="5" t="s">
         <v>39</v>
       </c>
@@ -1586,14 +1699,14 @@
       <c r="G35" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H35" s="16"/>
+      <c r="H35" s="18"/>
       <c r="I35" s="10"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="19"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="26"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="28"/>
       <c r="E36" s="5" t="s">
         <v>40</v>
       </c>
@@ -1603,14 +1716,14 @@
       <c r="G36" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H36" s="16"/>
+      <c r="H36" s="18"/>
       <c r="I36" s="10"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="26"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="28"/>
       <c r="E37" s="5" t="s">
         <v>10</v>
       </c>
@@ -1620,20 +1733,20 @@
       <c r="G37" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H37" s="17"/>
+      <c r="H37" s="19"/>
       <c r="I37" s="10"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="18">
+      <c r="A38" s="20">
         <v>40</v>
       </c>
-      <c r="B38" s="15">
+      <c r="B38" s="17">
         <v>40</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="17">
         <v>80</v>
       </c>
-      <c r="D38" s="26"/>
+      <c r="D38" s="28"/>
       <c r="E38" s="5" t="s">
         <v>20</v>
       </c>
@@ -1643,16 +1756,16 @@
       <c r="G38" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H38" s="15" t="s">
+      <c r="H38" s="17" t="s">
         <v>41</v>
       </c>
       <c r="I38" s="10"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="19"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="26"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="28"/>
       <c r="E39" s="5" t="s">
         <v>38</v>
       </c>
@@ -1662,14 +1775,14 @@
       <c r="G39" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H39" s="16"/>
+      <c r="H39" s="18"/>
       <c r="I39" s="10"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="19"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="26"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="28"/>
       <c r="E40" s="5" t="s">
         <v>39</v>
       </c>
@@ -1679,14 +1792,14 @@
       <c r="G40" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H40" s="16"/>
+      <c r="H40" s="18"/>
       <c r="I40" s="10"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="19"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="26"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="28"/>
       <c r="E41" s="5" t="s">
         <v>40</v>
       </c>
@@ -1696,14 +1809,14 @@
       <c r="G41" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H41" s="16"/>
+      <c r="H41" s="18"/>
       <c r="I41" s="10"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="19"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="26"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="28"/>
       <c r="E42" s="5" t="s">
         <v>24</v>
       </c>
@@ -1713,14 +1826,14 @@
       <c r="G42" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H42" s="16"/>
+      <c r="H42" s="18"/>
       <c r="I42" s="10"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="19"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="26"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="28"/>
       <c r="E43" s="7" t="s">
         <v>25</v>
       </c>
@@ -1730,14 +1843,14 @@
       <c r="G43" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H43" s="16"/>
+      <c r="H43" s="18"/>
       <c r="I43" s="10"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="20"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="26"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="28"/>
       <c r="E44" s="5" t="s">
         <v>26</v>
       </c>
@@ -1747,20 +1860,20 @@
       <c r="G44" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H44" s="17"/>
+      <c r="H44" s="19"/>
       <c r="I44" s="10"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="18">
+      <c r="A45" s="20">
         <v>40</v>
       </c>
-      <c r="B45" s="15">
+      <c r="B45" s="17">
         <v>63</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="17">
         <v>80</v>
       </c>
-      <c r="D45" s="26"/>
+      <c r="D45" s="28"/>
       <c r="E45" s="5" t="s">
         <v>43</v>
       </c>
@@ -1770,15 +1883,15 @@
       <c r="G45" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H45" s="15" t="s">
+      <c r="H45" s="17" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="19"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="26"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="28"/>
       <c r="E46" s="5" t="s">
         <v>44</v>
       </c>
@@ -1788,13 +1901,13 @@
       <c r="G46" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H46" s="16"/>
+      <c r="H46" s="18"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="19"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="26"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="28"/>
       <c r="E47" s="5" t="s">
         <v>45</v>
       </c>
@@ -1804,13 +1917,13 @@
       <c r="G47" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H47" s="16"/>
+      <c r="H47" s="18"/>
     </row>
     <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="20"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="26"/>
+      <c r="A48" s="22"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="28"/>
       <c r="E48" s="5" t="s">
         <v>31</v>
       </c>
@@ -1820,19 +1933,19 @@
       <c r="G48" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H48" s="17"/>
+      <c r="H48" s="19"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="18">
+      <c r="A49" s="20">
         <v>48</v>
       </c>
-      <c r="B49" s="15">
+      <c r="B49" s="17">
         <v>16</v>
       </c>
-      <c r="C49" s="15">
+      <c r="C49" s="17">
         <v>100</v>
       </c>
-      <c r="D49" s="26"/>
+      <c r="D49" s="28"/>
       <c r="E49" s="5" t="s">
         <v>47</v>
       </c>
@@ -1842,15 +1955,15 @@
       <c r="G49" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H49" s="15" t="s">
+      <c r="H49" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="19"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="26"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="28"/>
       <c r="E50" s="5" t="s">
         <v>48</v>
       </c>
@@ -1860,13 +1973,13 @@
       <c r="G50" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H50" s="16"/>
+      <c r="H50" s="18"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="19"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="26"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="28"/>
       <c r="E51" s="5" t="s">
         <v>49</v>
       </c>
@@ -1876,13 +1989,13 @@
       <c r="G51" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H51" s="16"/>
+      <c r="H51" s="18"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="19"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="26"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="28"/>
       <c r="E52" s="5" t="s">
         <v>50</v>
       </c>
@@ -1892,13 +2005,13 @@
       <c r="G52" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H52" s="16"/>
+      <c r="H52" s="18"/>
     </row>
     <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="19"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="26"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="28"/>
       <c r="E53" s="5" t="s">
         <v>51</v>
       </c>
@@ -1908,13 +2021,13 @@
       <c r="G53" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H53" s="16"/>
+      <c r="H53" s="18"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="19"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="26"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="28"/>
       <c r="E54" s="5" t="s">
         <v>10</v>
       </c>
@@ -1924,19 +2037,19 @@
       <c r="G54" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H54" s="16"/>
+      <c r="H54" s="18"/>
     </row>
     <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="22">
+      <c r="A55" s="24">
         <v>48</v>
       </c>
-      <c r="B55" s="21">
+      <c r="B55" s="23">
         <v>40</v>
       </c>
-      <c r="C55" s="21">
+      <c r="C55" s="23">
         <v>100</v>
       </c>
-      <c r="D55" s="26"/>
+      <c r="D55" s="28"/>
       <c r="E55" s="5" t="s">
         <v>10</v>
       </c>
@@ -1946,15 +2059,15 @@
       <c r="G55" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H55" s="21" t="s">
+      <c r="H55" s="23" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="19"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="26"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="28"/>
       <c r="E56" s="5" t="s">
         <v>53</v>
       </c>
@@ -1964,13 +2077,13 @@
       <c r="G56" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H56" s="16"/>
+      <c r="H56" s="18"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="24"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="26"/>
+      <c r="A57" s="26"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="28"/>
       <c r="E57" s="5" t="s">
         <v>54</v>
       </c>
@@ -1980,19 +2093,19 @@
       <c r="G57" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H57" s="23"/>
+      <c r="H57" s="25"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="19">
+      <c r="A58" s="21">
         <v>72</v>
       </c>
-      <c r="B58" s="16">
+      <c r="B58" s="18">
         <v>63</v>
       </c>
-      <c r="C58" s="16">
+      <c r="C58" s="18">
         <v>100</v>
       </c>
-      <c r="D58" s="26"/>
+      <c r="D58" s="28"/>
       <c r="E58" s="5" t="s">
         <v>12</v>
       </c>
@@ -2002,15 +2115,15 @@
       <c r="G58" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H58" s="16" t="s">
+      <c r="H58" s="18" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="19"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="26"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="28"/>
       <c r="E59" s="5" t="s">
         <v>56</v>
       </c>
@@ -2020,13 +2133,13 @@
       <c r="G59" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H59" s="16"/>
+      <c r="H59" s="18"/>
     </row>
     <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="19"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="26"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="28"/>
       <c r="E60" s="5" t="s">
         <v>57</v>
       </c>
@@ -2036,13 +2149,13 @@
       <c r="G60" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H60" s="16"/>
+      <c r="H60" s="18"/>
     </row>
     <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="20"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="26"/>
+      <c r="A61" s="22"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="28"/>
       <c r="E61" s="5" t="s">
         <v>58</v>
       </c>
@@ -2052,19 +2165,19 @@
       <c r="G61" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H61" s="17"/>
+      <c r="H61" s="19"/>
     </row>
     <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="18">
+      <c r="A62" s="20">
         <v>56</v>
       </c>
-      <c r="B62" s="15">
+      <c r="B62" s="17">
         <v>100</v>
       </c>
-      <c r="C62" s="15">
+      <c r="C62" s="17">
         <v>100</v>
       </c>
-      <c r="D62" s="26"/>
+      <c r="D62" s="28"/>
       <c r="E62" s="8" t="s">
         <v>60</v>
       </c>
@@ -2074,15 +2187,15 @@
       <c r="G62" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H62" s="15" t="s">
+      <c r="H62" s="17" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="19"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="26"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="28"/>
       <c r="E63" s="9" t="s">
         <v>61</v>
       </c>
@@ -2092,13 +2205,13 @@
       <c r="G63" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H63" s="16"/>
+      <c r="H63" s="18"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="20"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="26"/>
+      <c r="A64" s="22"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="28"/>
       <c r="E64" s="5" t="s">
         <v>62</v>
       </c>
@@ -2108,19 +2221,19 @@
       <c r="G64" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H64" s="17"/>
+      <c r="H64" s="19"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="18">
+      <c r="A65" s="20">
         <v>48</v>
       </c>
-      <c r="B65" s="15">
+      <c r="B65" s="17">
         <v>160</v>
       </c>
-      <c r="C65" s="15">
+      <c r="C65" s="17">
         <v>100</v>
       </c>
-      <c r="D65" s="26"/>
+      <c r="D65" s="28"/>
       <c r="E65" s="5" t="s">
         <v>64</v>
       </c>
@@ -2130,15 +2243,15 @@
       <c r="G65" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H65" s="15" t="s">
+      <c r="H65" s="17" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="19"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="26"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="28"/>
       <c r="E66" s="5" t="s">
         <v>65</v>
       </c>
@@ -2148,13 +2261,13 @@
       <c r="G66" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H66" s="16"/>
+      <c r="H66" s="18"/>
     </row>
     <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="19"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="26"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="28"/>
       <c r="E67" s="5" t="s">
         <v>66</v>
       </c>
@@ -2164,13 +2277,13 @@
       <c r="G67" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H67" s="16"/>
+      <c r="H67" s="18"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="20"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="26"/>
+      <c r="A68" s="22"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="28"/>
       <c r="E68" s="5" t="s">
         <v>67</v>
       </c>
@@ -2180,19 +2293,19 @@
       <c r="G68" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H68" s="17"/>
+      <c r="H68" s="19"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="18">
+      <c r="A69" s="20">
         <v>75</v>
       </c>
-      <c r="B69" s="15">
+      <c r="B69" s="17">
         <v>16</v>
       </c>
-      <c r="C69" s="15">
+      <c r="C69" s="17">
         <v>150</v>
       </c>
-      <c r="D69" s="26"/>
+      <c r="D69" s="28"/>
       <c r="E69" s="5" t="s">
         <v>69</v>
       </c>
@@ -2202,15 +2315,15 @@
       <c r="G69" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H69" s="15" t="s">
+      <c r="H69" s="17" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="19"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="26"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="28"/>
       <c r="E70" s="5" t="s">
         <v>49</v>
       </c>
@@ -2220,13 +2333,13 @@
       <c r="G70" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H70" s="16"/>
+      <c r="H70" s="18"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="19"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="26"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="28"/>
       <c r="E71" s="5" t="s">
         <v>39</v>
       </c>
@@ -2236,13 +2349,13 @@
       <c r="G71" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H71" s="16"/>
+      <c r="H71" s="18"/>
     </row>
     <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="19"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="26"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="28"/>
       <c r="E72" s="5" t="s">
         <v>40</v>
       </c>
@@ -2252,13 +2365,13 @@
       <c r="G72" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H72" s="16"/>
+      <c r="H72" s="18"/>
     </row>
     <row r="73" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="19"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="26"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="28"/>
       <c r="E73" s="5" t="s">
         <v>70</v>
       </c>
@@ -2268,13 +2381,13 @@
       <c r="G73" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H73" s="16"/>
+      <c r="H73" s="18"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="20"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="26"/>
+      <c r="A74" s="22"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="28"/>
       <c r="E74" s="5" t="s">
         <v>71</v>
       </c>
@@ -2284,19 +2397,19 @@
       <c r="G74" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H74" s="17"/>
+      <c r="H74" s="19"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="18">
+      <c r="A75" s="20">
         <v>75</v>
       </c>
-      <c r="B75" s="15">
+      <c r="B75" s="17">
         <v>40</v>
       </c>
-      <c r="C75" s="15">
+      <c r="C75" s="17">
         <v>150</v>
       </c>
-      <c r="D75" s="26"/>
+      <c r="D75" s="28"/>
       <c r="E75" s="5" t="s">
         <v>70</v>
       </c>
@@ -2306,15 +2419,15 @@
       <c r="G75" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H75" s="15" t="s">
+      <c r="H75" s="17" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="19"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="26"/>
+      <c r="A76" s="21"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="28"/>
       <c r="E76" s="5" t="s">
         <v>73</v>
       </c>
@@ -2324,13 +2437,13 @@
       <c r="G76" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H76" s="16"/>
+      <c r="H76" s="18"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="19"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="26"/>
+      <c r="A77" s="21"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="28"/>
       <c r="E77" s="5" t="s">
         <v>74</v>
       </c>
@@ -2340,13 +2453,13 @@
       <c r="G77" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H77" s="16"/>
+      <c r="H77" s="18"/>
     </row>
     <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="19"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="26"/>
+      <c r="A78" s="21"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="28"/>
       <c r="E78" s="5" t="s">
         <v>43</v>
       </c>
@@ -2356,13 +2469,13 @@
       <c r="G78" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H78" s="16"/>
+      <c r="H78" s="18"/>
     </row>
     <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="20"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="26"/>
+      <c r="A79" s="22"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="28"/>
       <c r="E79" s="5" t="s">
         <v>75</v>
       </c>
@@ -2372,19 +2485,19 @@
       <c r="G79" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H79" s="17"/>
+      <c r="H79" s="19"/>
     </row>
     <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="18">
+      <c r="A80" s="20">
         <v>142</v>
       </c>
-      <c r="B80" s="15">
+      <c r="B80" s="17">
         <v>16</v>
       </c>
-      <c r="C80" s="15">
+      <c r="C80" s="17">
         <v>200</v>
       </c>
-      <c r="D80" s="26"/>
+      <c r="D80" s="28"/>
       <c r="E80" s="5" t="s">
         <v>47</v>
       </c>
@@ -2394,15 +2507,15 @@
       <c r="G80" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H80" s="15" t="s">
+      <c r="H80" s="17" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="19"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="26"/>
+      <c r="A81" s="21"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="28"/>
       <c r="E81" s="5" t="s">
         <v>77</v>
       </c>
@@ -2412,13 +2525,13 @@
       <c r="G81" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H81" s="16"/>
+      <c r="H81" s="18"/>
     </row>
     <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="19"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="26"/>
+      <c r="A82" s="21"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="28"/>
       <c r="E82" s="5" t="s">
         <v>78</v>
       </c>
@@ -2428,13 +2541,13 @@
       <c r="G82" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H82" s="16"/>
+      <c r="H82" s="18"/>
     </row>
     <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="19"/>
-      <c r="B83" s="16"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="26"/>
+      <c r="A83" s="21"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="28"/>
       <c r="E83" s="5" t="s">
         <v>39</v>
       </c>
@@ -2444,13 +2557,13 @@
       <c r="G83" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H83" s="16"/>
+      <c r="H83" s="18"/>
     </row>
     <row r="84" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="19"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="26"/>
+      <c r="A84" s="21"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="28"/>
       <c r="E84" s="5" t="s">
         <v>79</v>
       </c>
@@ -2460,13 +2573,13 @@
       <c r="G84" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H84" s="16"/>
+      <c r="H84" s="18"/>
     </row>
     <row r="85" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="19"/>
-      <c r="B85" s="16"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="26"/>
+      <c r="A85" s="21"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="28"/>
       <c r="E85" s="5" t="s">
         <v>80</v>
       </c>
@@ -2476,13 +2589,13 @@
       <c r="G85" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H85" s="16"/>
+      <c r="H85" s="18"/>
     </row>
     <row r="86" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="19"/>
-      <c r="B86" s="16"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="26"/>
+      <c r="A86" s="21"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="28"/>
       <c r="E86" s="5" t="s">
         <v>81</v>
       </c>
@@ -2492,13 +2605,13 @@
       <c r="G86" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H86" s="16"/>
+      <c r="H86" s="18"/>
     </row>
     <row r="87" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="24"/>
-      <c r="B87" s="23"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="27"/>
+      <c r="A87" s="26"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="29"/>
       <c r="E87" s="5" t="s">
         <v>71</v>
       </c>
@@ -2508,7 +2621,7 @@
       <c r="G87" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H87" s="23"/>
+      <c r="H87" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="69">
@@ -2589,10 +2702,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:K87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2601,206 +2714,238 @@
     <col min="7" max="9" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="15" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30">
         <v>16</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="31">
         <v>16.399999999999999</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="32">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30">
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="33">
         <v>12</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="34">
         <v>100</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="35">
         <v>25</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31">
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="33">
         <v>12</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="34">
         <v>160</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="35">
         <v>25</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28">
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="33">
         <v>33</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="34">
         <v>16</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="35">
         <v>50</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="32">
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="33">
         <v>33</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="34">
         <v>40</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="35">
         <v>50</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32">
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="33">
         <v>33</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="34">
         <v>63</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="35">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="32">
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="33">
         <v>33</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="34">
         <v>160</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="35">
         <v>50</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32">
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="33">
         <v>40</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="34">
         <v>16</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="35">
         <v>80</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="32">
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="33">
         <v>40</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="34">
         <v>40</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="35">
         <v>80</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32">
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="33">
         <v>40</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="34">
         <v>63</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="35">
         <v>80</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32">
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="33">
         <v>48</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="34">
         <v>16</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="35">
         <v>100</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28">
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="33">
         <v>48</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="34">
         <v>40</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="35">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="32">
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="33">
         <v>56</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="34">
         <v>100</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="35">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="32">
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="33">
         <v>48</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="34">
         <v>160</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="35">
         <v>100</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="34">
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="33">
         <v>72</v>
       </c>
-      <c r="B16" s="35">
+      <c r="B16" s="34">
         <v>63</v>
       </c>
       <c r="C16" s="35">
@@ -2808,98 +2953,107 @@
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32">
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+    </row>
+    <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="33">
         <v>75</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="34">
         <v>16</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="35">
         <v>150</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="32">
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+    </row>
+    <row r="18" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="33">
         <v>75</v>
       </c>
-      <c r="B18" s="33">
+      <c r="B18" s="34">
         <v>40</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="35">
         <v>150</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30">
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="36">
         <v>142</v>
       </c>
-      <c r="B19" s="31">
+      <c r="B19" s="37">
         <v>16</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="38">
         <v>200</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>

--- a/code/DNtoPN.xlsx
+++ b/code/DNtoPN.xlsx
@@ -304,7 +304,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,6 +323,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -522,6 +528,9 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -549,15 +558,18 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -573,50 +585,44 @@
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="12" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="13" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="12" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="13" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="13" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -962,396 +968,396 @@
     <col min="4" max="4" style="44" width="26.14785714285714" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="44" width="15.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="45" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="46" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="5">
-        <v>16</v>
-      </c>
-      <c r="B2" s="6">
-        <v>16.4</v>
-      </c>
-      <c r="C2" s="23">
+      <c r="H1" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="6">
+        <v>16</v>
+      </c>
+      <c r="B2" s="8">
+        <v>16</v>
+      </c>
+      <c r="C2" s="25">
         <v>25</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="26">
         <v>8</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="26">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="25" t="s">
+      <c r="F2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="12">
-        <v>16</v>
-      </c>
-      <c r="B3" s="26">
-        <v>16.4</v>
-      </c>
-      <c r="C3" s="27">
+      <c r="H2" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="13">
+        <v>16</v>
+      </c>
+      <c r="B3" s="14">
+        <v>16</v>
+      </c>
+      <c r="C3" s="28">
         <v>25</v>
       </c>
-      <c r="D3" s="24">
-        <v>16</v>
-      </c>
-      <c r="E3" s="24">
+      <c r="D3" s="26">
+        <v>16</v>
+      </c>
+      <c r="E3" s="26">
         <v>1</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="25" t="s">
+      <c r="F3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="12">
-        <v>16</v>
-      </c>
-      <c r="B4" s="26">
-        <v>16.4</v>
-      </c>
-      <c r="C4" s="27">
+      <c r="H3" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="13">
+        <v>16</v>
+      </c>
+      <c r="B4" s="14">
+        <v>16</v>
+      </c>
+      <c r="C4" s="28">
         <v>25</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="26">
         <v>25</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="26">
         <v>2</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="25" t="s">
+      <c r="F4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="28">
-        <v>16</v>
-      </c>
-      <c r="B5" s="29">
-        <v>16.4</v>
+      <c r="H4" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="29">
+        <v>16</v>
+      </c>
+      <c r="B5" s="14">
+        <v>16</v>
       </c>
       <c r="C5" s="30">
         <v>25</v>
       </c>
-      <c r="D5" s="24">
-        <v>40</v>
-      </c>
-      <c r="E5" s="24">
+      <c r="D5" s="26">
+        <v>40</v>
+      </c>
+      <c r="E5" s="26">
         <v>3</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="25" t="s">
+      <c r="F5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="12">
+      <c r="H5" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="13">
         <v>12</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="14">
         <v>100</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="14">
         <v>25</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="26">
         <v>8</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="26">
         <v>8</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="25" t="s">
+      <c r="F6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="12">
+      <c r="H6" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="13">
         <v>12</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="14">
         <v>100</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="14">
         <v>25</v>
       </c>
-      <c r="D7" s="24">
-        <v>16</v>
-      </c>
-      <c r="E7" s="24">
+      <c r="D7" s="26">
+        <v>16</v>
+      </c>
+      <c r="E7" s="26">
         <v>1</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="25" t="s">
+      <c r="F7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="12">
+      <c r="H7" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="13">
         <v>12</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="14">
         <v>100</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="14">
         <v>25</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="26">
         <v>25</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="26">
         <v>2</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="25" t="s">
+      <c r="F8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="12">
+      <c r="H8" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="13">
         <v>12</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="14">
         <v>100</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="14">
         <v>25</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="26">
         <v>50</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="26">
         <v>3</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="12">
+      <c r="F9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="13">
         <v>12</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="14">
         <v>100</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="14">
         <v>25</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="26">
         <v>80</v>
       </c>
-      <c r="E10" s="24">
-        <v>4</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="25" t="s">
+      <c r="E10" s="26">
+        <v>4</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="12">
+      <c r="H10" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="13">
         <v>12</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="14">
         <v>100</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="14">
         <v>25</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="26">
         <v>100</v>
       </c>
-      <c r="E11" s="24">
-        <v>5</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="25" t="s">
+      <c r="E11" s="26">
+        <v>5</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="7">
+      <c r="H11" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="8">
         <v>12</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="8">
         <v>160</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="11">
         <v>25</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="26">
         <v>160</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="26">
         <v>9</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G12" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="5">
+      <c r="H12" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="6">
         <v>33</v>
       </c>
-      <c r="B13" s="7">
-        <v>16</v>
-      </c>
-      <c r="C13" s="7">
+      <c r="B13" s="8">
+        <v>16</v>
+      </c>
+      <c r="C13" s="8">
         <v>50</v>
       </c>
       <c r="D13" s="32">
         <v>1.2</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="26">
         <v>10</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="25" t="s">
+      <c r="F13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="12">
+      <c r="H13" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="13">
         <v>33</v>
       </c>
-      <c r="B14" s="13">
-        <v>16</v>
-      </c>
-      <c r="C14" s="13">
+      <c r="B14" s="14">
+        <v>16</v>
+      </c>
+      <c r="C14" s="14">
         <v>50</v>
       </c>
       <c r="D14" s="32">
         <v>2.5</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="26">
         <v>11</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="25" t="s">
+      <c r="F14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="12">
+      <c r="H14" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="13">
         <v>33</v>
       </c>
-      <c r="B15" s="13">
-        <v>16</v>
-      </c>
-      <c r="C15" s="13">
+      <c r="B15" s="14">
+        <v>16</v>
+      </c>
+      <c r="C15" s="14">
         <v>50</v>
       </c>
-      <c r="D15" s="24">
-        <v>4</v>
-      </c>
-      <c r="E15" s="24">
+      <c r="D15" s="26">
+        <v>4</v>
+      </c>
+      <c r="E15" s="26">
         <v>12</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="25" t="s">
+      <c r="F15" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="12">
+      <c r="H15" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="13">
         <v>33</v>
       </c>
-      <c r="B16" s="13">
-        <v>16</v>
-      </c>
-      <c r="C16" s="13">
+      <c r="B16" s="14">
+        <v>16</v>
+      </c>
+      <c r="C16" s="14">
         <v>50</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="26">
         <v>8</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="26">
         <v>13</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="25" t="s">
+      <c r="F16" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="28">
+      <c r="H16" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="29">
         <v>33</v>
       </c>
       <c r="B17" s="33">
@@ -1360,334 +1366,334 @@
       <c r="C17" s="33">
         <v>50</v>
       </c>
-      <c r="D17" s="24">
-        <v>16</v>
-      </c>
-      <c r="E17" s="24">
+      <c r="D17" s="26">
+        <v>16</v>
+      </c>
+      <c r="E17" s="26">
         <v>14</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="25" t="s">
+      <c r="F17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="12">
+      <c r="H17" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="13">
         <v>33</v>
       </c>
-      <c r="B18" s="13">
-        <v>40</v>
-      </c>
-      <c r="C18" s="13">
+      <c r="B18" s="14">
+        <v>40</v>
+      </c>
+      <c r="C18" s="14">
         <v>50</v>
       </c>
       <c r="D18" s="32">
         <v>1.2</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="26">
         <v>10</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="25" t="s">
+      <c r="F18" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="12">
+      <c r="H18" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="13">
         <v>33</v>
       </c>
-      <c r="B19" s="13">
-        <v>40</v>
-      </c>
-      <c r="C19" s="13">
+      <c r="B19" s="14">
+        <v>40</v>
+      </c>
+      <c r="C19" s="14">
         <v>50</v>
       </c>
       <c r="D19" s="32">
         <v>2.5</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="26">
         <v>11</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="25" t="s">
+      <c r="F19" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="12">
+      <c r="H19" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="13">
         <v>33</v>
       </c>
-      <c r="B20" s="13">
-        <v>40</v>
-      </c>
-      <c r="C20" s="13">
+      <c r="B20" s="14">
+        <v>40</v>
+      </c>
+      <c r="C20" s="14">
         <v>50</v>
       </c>
-      <c r="D20" s="24">
-        <v>4</v>
-      </c>
-      <c r="E20" s="24">
+      <c r="D20" s="26">
+        <v>4</v>
+      </c>
+      <c r="E20" s="26">
         <v>12</v>
       </c>
-      <c r="F20" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="25" t="s">
+      <c r="F20" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="22"/>
+      <c r="H20" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="12">
+      <c r="A21" s="13">
         <v>33</v>
       </c>
-      <c r="B21" s="13">
-        <v>40</v>
-      </c>
-      <c r="C21" s="13">
+      <c r="B21" s="14">
+        <v>40</v>
+      </c>
+      <c r="C21" s="14">
         <v>50</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="26">
         <v>8</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="26">
         <v>13</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="25" t="s">
+      <c r="F21" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="22"/>
+      <c r="H21" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="12">
+      <c r="A22" s="13">
         <v>33</v>
       </c>
-      <c r="B22" s="13">
-        <v>40</v>
-      </c>
-      <c r="C22" s="13">
+      <c r="B22" s="14">
+        <v>40</v>
+      </c>
+      <c r="C22" s="14">
         <v>50</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="26">
         <v>20</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="26">
         <v>14</v>
       </c>
-      <c r="F22" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="25" t="s">
+      <c r="F22" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="22"/>
+      <c r="H22" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="12">
+      <c r="A23" s="13">
         <v>33</v>
       </c>
-      <c r="B23" s="13">
-        <v>40</v>
-      </c>
-      <c r="C23" s="13">
+      <c r="B23" s="14">
+        <v>40</v>
+      </c>
+      <c r="C23" s="14">
         <v>50</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="26">
         <v>30</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="26">
         <v>15</v>
       </c>
-      <c r="F23" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" s="25" t="s">
+      <c r="F23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="H23" s="22"/>
+      <c r="H23" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="12">
+      <c r="A24" s="13">
         <v>33</v>
       </c>
-      <c r="B24" s="13">
-        <v>40</v>
-      </c>
-      <c r="C24" s="13">
+      <c r="B24" s="14">
+        <v>40</v>
+      </c>
+      <c r="C24" s="14">
         <v>50</v>
       </c>
-      <c r="D24" s="24">
-        <v>40</v>
-      </c>
-      <c r="E24" s="24">
-        <v>16</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="25" t="s">
+      <c r="D24" s="26">
+        <v>40</v>
+      </c>
+      <c r="E24" s="26">
+        <v>16</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H24" s="22"/>
+      <c r="H24" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="5">
+      <c r="A25" s="6">
         <v>33</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="8">
         <v>63</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="8">
         <v>50</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="26">
         <v>34</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="26">
         <v>55</v>
       </c>
-      <c r="F25" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="25" t="s">
+      <c r="F25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="H25" s="22"/>
+      <c r="H25" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="12">
+      <c r="A26" s="13">
         <v>33</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="14">
         <v>63</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="14">
         <v>50</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="26">
         <v>54</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="26">
         <v>56</v>
       </c>
-      <c r="F26" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="25" t="s">
+      <c r="F26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="22"/>
+      <c r="H26" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="12">
+      <c r="A27" s="13">
         <v>33</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="14">
         <v>63</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="14">
         <v>50</v>
       </c>
-      <c r="D27" s="24">
+      <c r="D27" s="26">
         <v>63</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="26">
         <v>57</v>
       </c>
-      <c r="F27" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="25" t="s">
+      <c r="F27" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="22"/>
+      <c r="H27" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="12">
+      <c r="A28" s="13">
         <v>33</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="14">
         <v>160</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="14">
         <v>50</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="26">
         <v>90</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="26">
         <v>58</v>
       </c>
-      <c r="F28" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="25" t="s">
+      <c r="F28" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="H28" s="22"/>
+      <c r="H28" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="12">
+      <c r="A29" s="13">
         <v>33</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="14">
         <v>160</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="14">
         <v>50</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D29" s="26">
         <v>124</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="26">
         <v>59</v>
       </c>
-      <c r="F29" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="25" t="s">
+      <c r="F29" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="H29" s="22"/>
+      <c r="H29" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="12">
+      <c r="A30" s="13">
         <v>33</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="14">
         <v>160</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="14">
         <v>50</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D30" s="26">
         <v>141</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="26">
         <v>60</v>
       </c>
-      <c r="F30" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" s="25" t="s">
+      <c r="F30" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H30" s="22"/>
+      <c r="H30" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="28">
+      <c r="A31" s="29">
         <v>33</v>
       </c>
       <c r="B31" s="33">
@@ -1696,268 +1702,268 @@
       <c r="C31" s="33">
         <v>50</v>
       </c>
-      <c r="D31" s="24">
+      <c r="D31" s="26">
         <v>160</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="26">
         <v>61</v>
       </c>
-      <c r="F31" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G31" s="25" t="s">
+      <c r="F31" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="H31" s="22"/>
+      <c r="H31" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="12">
-        <v>40</v>
-      </c>
-      <c r="B32" s="13">
-        <v>16</v>
-      </c>
-      <c r="C32" s="13">
+      <c r="A32" s="13">
+        <v>40</v>
+      </c>
+      <c r="B32" s="14">
+        <v>16</v>
+      </c>
+      <c r="C32" s="14">
         <v>80</v>
       </c>
       <c r="D32" s="32">
         <v>1.2</v>
       </c>
-      <c r="E32" s="24">
+      <c r="E32" s="26">
         <v>30</v>
       </c>
-      <c r="F32" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="25" t="s">
+      <c r="F32" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="H32" s="22"/>
+      <c r="H32" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="12">
-        <v>40</v>
-      </c>
-      <c r="B33" s="13">
-        <v>16</v>
-      </c>
-      <c r="C33" s="13">
+      <c r="A33" s="13">
+        <v>40</v>
+      </c>
+      <c r="B33" s="14">
+        <v>16</v>
+      </c>
+      <c r="C33" s="14">
         <v>80</v>
       </c>
-      <c r="D33" s="24">
+      <c r="D33" s="26">
         <v>3</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33" s="26">
         <v>31</v>
       </c>
-      <c r="F33" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="H33" s="22"/>
+      <c r="F33" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="12">
-        <v>40</v>
-      </c>
-      <c r="B34" s="13">
-        <v>16</v>
-      </c>
-      <c r="C34" s="13">
+      <c r="A34" s="13">
+        <v>40</v>
+      </c>
+      <c r="B34" s="14">
+        <v>16</v>
+      </c>
+      <c r="C34" s="14">
         <v>80</v>
       </c>
-      <c r="D34" s="24">
-        <v>5</v>
-      </c>
-      <c r="E34" s="24">
+      <c r="D34" s="26">
+        <v>5</v>
+      </c>
+      <c r="E34" s="26">
         <v>32</v>
       </c>
-      <c r="F34" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G34" s="25" t="s">
+      <c r="F34" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="H34" s="22"/>
+      <c r="H34" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="12">
-        <v>40</v>
-      </c>
-      <c r="B35" s="13">
-        <v>16</v>
-      </c>
-      <c r="C35" s="13">
+      <c r="A35" s="13">
+        <v>40</v>
+      </c>
+      <c r="B35" s="14">
+        <v>16</v>
+      </c>
+      <c r="C35" s="14">
         <v>80</v>
       </c>
-      <c r="D35" s="24">
+      <c r="D35" s="26">
         <v>8</v>
       </c>
-      <c r="E35" s="24">
+      <c r="E35" s="26">
         <v>33</v>
       </c>
-      <c r="F35" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G35" s="25" t="s">
+      <c r="F35" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="H35" s="22"/>
+      <c r="H35" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="12">
-        <v>40</v>
-      </c>
-      <c r="B36" s="13">
-        <v>16</v>
-      </c>
-      <c r="C36" s="13">
+      <c r="A36" s="13">
+        <v>40</v>
+      </c>
+      <c r="B36" s="14">
+        <v>16</v>
+      </c>
+      <c r="C36" s="14">
         <v>80</v>
       </c>
-      <c r="D36" s="24">
-        <v>16</v>
-      </c>
-      <c r="E36" s="24">
+      <c r="D36" s="26">
+        <v>16</v>
+      </c>
+      <c r="E36" s="26">
         <v>34</v>
       </c>
-      <c r="F36" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G36" s="25" t="s">
+      <c r="F36" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="H36" s="22"/>
+      <c r="H36" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="5">
-        <v>40</v>
-      </c>
-      <c r="B37" s="7">
-        <v>40</v>
-      </c>
-      <c r="C37" s="23">
+      <c r="A37" s="6">
+        <v>40</v>
+      </c>
+      <c r="B37" s="8">
+        <v>40</v>
+      </c>
+      <c r="C37" s="25">
         <v>80</v>
       </c>
       <c r="D37" s="32">
         <v>1.2</v>
       </c>
-      <c r="E37" s="24">
+      <c r="E37" s="26">
         <v>30</v>
       </c>
-      <c r="F37" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G37" s="25" t="s">
+      <c r="F37" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="H37" s="22"/>
+      <c r="H37" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="12">
-        <v>40</v>
-      </c>
-      <c r="B38" s="13">
-        <v>40</v>
-      </c>
-      <c r="C38" s="27">
+      <c r="A38" s="13">
+        <v>40</v>
+      </c>
+      <c r="B38" s="14">
+        <v>40</v>
+      </c>
+      <c r="C38" s="28">
         <v>80</v>
       </c>
-      <c r="D38" s="24">
+      <c r="D38" s="26">
         <v>3</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="26">
         <v>31</v>
       </c>
-      <c r="F38" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G38" s="25" t="s">
+      <c r="F38" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="H38" s="22"/>
+      <c r="H38" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="12">
-        <v>40</v>
-      </c>
-      <c r="B39" s="13">
-        <v>40</v>
-      </c>
-      <c r="C39" s="27">
+      <c r="A39" s="13">
+        <v>40</v>
+      </c>
+      <c r="B39" s="14">
+        <v>40</v>
+      </c>
+      <c r="C39" s="28">
         <v>80</v>
       </c>
-      <c r="D39" s="24">
-        <v>5</v>
-      </c>
-      <c r="E39" s="24">
+      <c r="D39" s="26">
+        <v>5</v>
+      </c>
+      <c r="E39" s="26">
         <v>32</v>
       </c>
-      <c r="F39" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G39" s="25" t="s">
+      <c r="F39" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="H39" s="22"/>
+      <c r="H39" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="12">
-        <v>40</v>
-      </c>
-      <c r="B40" s="13">
-        <v>40</v>
-      </c>
-      <c r="C40" s="27">
+      <c r="A40" s="13">
+        <v>40</v>
+      </c>
+      <c r="B40" s="14">
+        <v>40</v>
+      </c>
+      <c r="C40" s="28">
         <v>80</v>
       </c>
-      <c r="D40" s="24">
+      <c r="D40" s="26">
         <v>8</v>
       </c>
-      <c r="E40" s="24">
+      <c r="E40" s="26">
         <v>33</v>
       </c>
-      <c r="F40" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G40" s="25" t="s">
+      <c r="F40" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="H40" s="22"/>
+      <c r="H40" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="12">
-        <v>40</v>
-      </c>
-      <c r="B41" s="13">
-        <v>40</v>
-      </c>
-      <c r="C41" s="27">
+      <c r="A41" s="13">
+        <v>40</v>
+      </c>
+      <c r="B41" s="14">
+        <v>40</v>
+      </c>
+      <c r="C41" s="28">
         <v>80</v>
       </c>
-      <c r="D41" s="24">
+      <c r="D41" s="26">
         <v>20</v>
       </c>
-      <c r="E41" s="24">
+      <c r="E41" s="26">
         <v>35</v>
       </c>
-      <c r="F41" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G41" s="25" t="s">
+      <c r="F41" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="H41" s="22"/>
+      <c r="H41" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="12">
-        <v>40</v>
-      </c>
-      <c r="B42" s="13">
-        <v>40</v>
-      </c>
-      <c r="C42" s="27">
+      <c r="A42" s="13">
+        <v>40</v>
+      </c>
+      <c r="B42" s="14">
+        <v>40</v>
+      </c>
+      <c r="C42" s="28">
         <v>80</v>
       </c>
       <c r="D42" s="34">
@@ -1969,13 +1975,13 @@
       <c r="F42" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="G42" s="25" t="s">
+      <c r="G42" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="H42" s="22"/>
+      <c r="H42" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="28">
+      <c r="A43" s="29">
         <v>40</v>
       </c>
       <c r="B43" s="33">
@@ -1984,94 +1990,94 @@
       <c r="C43" s="30">
         <v>80</v>
       </c>
-      <c r="D43" s="24">
-        <v>40</v>
-      </c>
-      <c r="E43" s="24">
+      <c r="D43" s="26">
+        <v>40</v>
+      </c>
+      <c r="E43" s="26">
         <v>37</v>
       </c>
-      <c r="F43" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="25" t="s">
+      <c r="F43" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="H43" s="22"/>
+      <c r="H43" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="5">
-        <v>40</v>
-      </c>
-      <c r="B44" s="7">
+      <c r="A44" s="6">
+        <v>40</v>
+      </c>
+      <c r="B44" s="8">
         <v>63</v>
       </c>
-      <c r="C44" s="23">
+      <c r="C44" s="25">
         <v>80</v>
       </c>
-      <c r="D44" s="24">
+      <c r="D44" s="26">
         <v>35</v>
       </c>
-      <c r="E44" s="24">
+      <c r="E44" s="26">
         <v>38</v>
       </c>
-      <c r="F44" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="25" t="s">
+      <c r="F44" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="27" t="s">
         <v>51</v>
       </c>
       <c r="H44" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="12">
-        <v>40</v>
-      </c>
-      <c r="B45" s="13">
+      <c r="A45" s="13">
+        <v>40</v>
+      </c>
+      <c r="B45" s="14">
         <v>63</v>
       </c>
-      <c r="C45" s="27">
+      <c r="C45" s="28">
         <v>80</v>
       </c>
-      <c r="D45" s="24">
+      <c r="D45" s="26">
         <v>44</v>
       </c>
-      <c r="E45" s="24">
+      <c r="E45" s="26">
         <v>37</v>
       </c>
-      <c r="F45" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="25" t="s">
+      <c r="F45" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="27" t="s">
         <v>52</v>
       </c>
       <c r="H45" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="12">
-        <v>40</v>
-      </c>
-      <c r="B46" s="13">
+      <c r="A46" s="13">
+        <v>40</v>
+      </c>
+      <c r="B46" s="14">
         <v>63</v>
       </c>
-      <c r="C46" s="27">
+      <c r="C46" s="28">
         <v>80</v>
       </c>
-      <c r="D46" s="24">
+      <c r="D46" s="26">
         <v>50</v>
       </c>
-      <c r="E46" s="24">
+      <c r="E46" s="26">
         <v>39</v>
       </c>
-      <c r="F46" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="25" t="s">
+      <c r="F46" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="27" t="s">
         <v>53</v>
       </c>
       <c r="H46" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="28">
+      <c r="A47" s="29">
         <v>40</v>
       </c>
       <c r="B47" s="33">
@@ -2080,142 +2086,142 @@
       <c r="C47" s="30">
         <v>80</v>
       </c>
-      <c r="D47" s="24">
+      <c r="D47" s="26">
         <v>63</v>
       </c>
-      <c r="E47" s="24">
-        <v>40</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="25" t="s">
+      <c r="E47" s="26">
+        <v>40</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="27" t="s">
         <v>54</v>
       </c>
       <c r="H47" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="5">
+      <c r="A48" s="6">
         <v>48</v>
       </c>
-      <c r="B48" s="7">
-        <v>16</v>
-      </c>
-      <c r="C48" s="23">
+      <c r="B48" s="8">
+        <v>16</v>
+      </c>
+      <c r="C48" s="25">
         <v>100</v>
       </c>
-      <c r="D48" s="24">
+      <c r="D48" s="26">
         <v>1</v>
       </c>
-      <c r="E48" s="24">
+      <c r="E48" s="26">
         <v>50</v>
       </c>
-      <c r="F48" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="25" t="s">
+      <c r="F48" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="27" t="s">
         <v>55</v>
       </c>
       <c r="H48" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="12">
+      <c r="A49" s="13">
         <v>48</v>
       </c>
-      <c r="B49" s="13">
-        <v>16</v>
-      </c>
-      <c r="C49" s="27">
+      <c r="B49" s="14">
+        <v>16</v>
+      </c>
+      <c r="C49" s="28">
         <v>100</v>
       </c>
       <c r="D49" s="32">
         <v>1.6</v>
       </c>
-      <c r="E49" s="24">
+      <c r="E49" s="26">
         <v>51</v>
       </c>
-      <c r="F49" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="25" t="s">
+      <c r="F49" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="27" t="s">
         <v>56</v>
       </c>
       <c r="H49" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="12">
+      <c r="A50" s="13">
         <v>48</v>
       </c>
-      <c r="B50" s="13">
-        <v>16</v>
-      </c>
-      <c r="C50" s="27">
+      <c r="B50" s="14">
+        <v>16</v>
+      </c>
+      <c r="C50" s="28">
         <v>100</v>
       </c>
-      <c r="D50" s="24">
+      <c r="D50" s="26">
         <v>3</v>
       </c>
-      <c r="E50" s="24">
+      <c r="E50" s="26">
         <v>52</v>
       </c>
-      <c r="F50" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G50" s="25" t="s">
+      <c r="F50" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50" s="27" t="s">
         <v>57</v>
       </c>
       <c r="H50" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="12">
+      <c r="A51" s="13">
         <v>48</v>
       </c>
-      <c r="B51" s="13">
-        <v>16</v>
-      </c>
-      <c r="C51" s="27">
+      <c r="B51" s="14">
+        <v>16</v>
+      </c>
+      <c r="C51" s="28">
         <v>100</v>
       </c>
       <c r="D51" s="32">
         <v>4.5</v>
       </c>
-      <c r="E51" s="24">
+      <c r="E51" s="26">
         <v>53</v>
       </c>
-      <c r="F51" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G51" s="25" t="s">
+      <c r="F51" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51" s="27" t="s">
         <v>58</v>
       </c>
       <c r="H51" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="12">
+      <c r="A52" s="13">
         <v>48</v>
       </c>
-      <c r="B52" s="13">
-        <v>16</v>
-      </c>
-      <c r="C52" s="27">
+      <c r="B52" s="14">
+        <v>16</v>
+      </c>
+      <c r="C52" s="28">
         <v>100</v>
       </c>
       <c r="D52" s="32">
         <v>8.5</v>
       </c>
-      <c r="E52" s="24">
+      <c r="E52" s="26">
         <v>54</v>
       </c>
-      <c r="F52" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="25" t="s">
+      <c r="F52" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="27" t="s">
         <v>59</v>
       </c>
       <c r="H52" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="28">
+      <c r="A53" s="29">
         <v>48</v>
       </c>
       <c r="B53" s="33">
@@ -2224,70 +2230,70 @@
       <c r="C53" s="30">
         <v>100</v>
       </c>
-      <c r="D53" s="24">
-        <v>16</v>
-      </c>
-      <c r="E53" s="24">
+      <c r="D53" s="26">
+        <v>16</v>
+      </c>
+      <c r="E53" s="26">
         <v>55</v>
       </c>
-      <c r="F53" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G53" s="25" t="s">
+      <c r="F53" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" s="27" t="s">
         <v>60</v>
       </c>
       <c r="H53" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="5">
+      <c r="A54" s="6">
         <v>48</v>
       </c>
-      <c r="B54" s="7">
-        <v>40</v>
-      </c>
-      <c r="C54" s="23">
+      <c r="B54" s="8">
+        <v>40</v>
+      </c>
+      <c r="C54" s="25">
         <v>100</v>
       </c>
-      <c r="D54" s="24">
-        <v>16</v>
-      </c>
-      <c r="E54" s="24">
+      <c r="D54" s="26">
+        <v>16</v>
+      </c>
+      <c r="E54" s="26">
         <v>55</v>
       </c>
-      <c r="F54" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="25" t="s">
+      <c r="F54" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="27" t="s">
         <v>61</v>
       </c>
       <c r="H54" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="12">
+      <c r="A55" s="13">
         <v>48</v>
       </c>
-      <c r="B55" s="13">
-        <v>40</v>
-      </c>
-      <c r="C55" s="27">
+      <c r="B55" s="14">
+        <v>40</v>
+      </c>
+      <c r="C55" s="28">
         <v>100</v>
       </c>
-      <c r="D55" s="24">
+      <c r="D55" s="26">
         <v>26</v>
       </c>
-      <c r="E55" s="24">
+      <c r="E55" s="26">
         <v>56</v>
       </c>
-      <c r="F55" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G55" s="25" t="s">
+      <c r="F55" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55" s="27" t="s">
         <v>62</v>
       </c>
       <c r="H55" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="28">
+      <c r="A56" s="29">
         <v>48</v>
       </c>
       <c r="B56" s="33">
@@ -2296,13 +2302,13 @@
       <c r="C56" s="30">
         <v>100</v>
       </c>
-      <c r="D56" s="24">
-        <v>40</v>
-      </c>
-      <c r="E56" s="24">
+      <c r="D56" s="26">
+        <v>40</v>
+      </c>
+      <c r="E56" s="26">
         <v>57</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G56" s="37" t="s">
@@ -2311,79 +2317,79 @@
       <c r="H56" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="5">
+      <c r="A57" s="6">
         <v>48</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="8">
         <v>160</v>
       </c>
-      <c r="C57" s="23">
+      <c r="C57" s="25">
         <v>100</v>
       </c>
-      <c r="D57" s="24">
+      <c r="D57" s="26">
         <v>100</v>
       </c>
-      <c r="E57" s="24">
+      <c r="E57" s="26">
         <v>80</v>
       </c>
-      <c r="F57" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="25" t="s">
+      <c r="F57" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="27" t="s">
         <v>64</v>
       </c>
       <c r="H57" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="12">
+      <c r="A58" s="13">
         <v>48</v>
       </c>
-      <c r="B58" s="13">
+      <c r="B58" s="14">
         <v>160</v>
       </c>
-      <c r="C58" s="27">
+      <c r="C58" s="28">
         <v>100</v>
       </c>
-      <c r="D58" s="24">
+      <c r="D58" s="26">
         <v>125</v>
       </c>
-      <c r="E58" s="24">
+      <c r="E58" s="26">
         <v>81</v>
       </c>
-      <c r="F58" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="25" t="s">
+      <c r="F58" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="27" t="s">
         <v>65</v>
       </c>
       <c r="H58" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="12">
+      <c r="A59" s="13">
         <v>48</v>
       </c>
-      <c r="B59" s="13">
+      <c r="B59" s="14">
         <v>160</v>
       </c>
-      <c r="C59" s="27">
+      <c r="C59" s="28">
         <v>100</v>
       </c>
-      <c r="D59" s="24">
+      <c r="D59" s="26">
         <v>145</v>
       </c>
-      <c r="E59" s="24">
+      <c r="E59" s="26">
         <v>82</v>
       </c>
-      <c r="F59" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="25" t="s">
+      <c r="F59" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="27" t="s">
         <v>66</v>
       </c>
       <c r="H59" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="28">
+      <c r="A60" s="29">
         <v>48</v>
       </c>
       <c r="B60" s="33">
@@ -2392,28 +2398,28 @@
       <c r="C60" s="30">
         <v>100</v>
       </c>
-      <c r="D60" s="24">
+      <c r="D60" s="26">
         <v>160</v>
       </c>
-      <c r="E60" s="24">
+      <c r="E60" s="26">
         <v>83</v>
       </c>
-      <c r="F60" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G60" s="25" t="s">
+      <c r="F60" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="27" t="s">
         <v>67</v>
       </c>
       <c r="H60" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="5">
+      <c r="A61" s="6">
         <v>56</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="8">
         <v>100</v>
       </c>
-      <c r="C61" s="23">
+      <c r="C61" s="25">
         <v>100</v>
       </c>
       <c r="D61" s="38">
@@ -2431,13 +2437,13 @@
       <c r="H61" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="12">
+      <c r="A62" s="13">
         <v>56</v>
       </c>
-      <c r="B62" s="13">
+      <c r="B62" s="14">
         <v>100</v>
       </c>
-      <c r="C62" s="27">
+      <c r="C62" s="28">
         <v>100</v>
       </c>
       <c r="D62" s="41">
@@ -2449,13 +2455,13 @@
       <c r="F62" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="G62" s="25" t="s">
+      <c r="G62" s="27" t="s">
         <v>69</v>
       </c>
       <c r="H62" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="28">
+      <c r="A63" s="29">
         <v>56</v>
       </c>
       <c r="B63" s="33">
@@ -2464,37 +2470,37 @@
       <c r="C63" s="30">
         <v>100</v>
       </c>
-      <c r="D63" s="24">
+      <c r="D63" s="26">
         <v>125</v>
       </c>
-      <c r="E63" s="24">
+      <c r="E63" s="26">
         <v>83</v>
       </c>
-      <c r="F63" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G63" s="25" t="s">
+      <c r="F63" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63" s="27" t="s">
         <v>70</v>
       </c>
       <c r="H63" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
-      <c r="A64" s="5">
+      <c r="A64" s="6">
         <v>72</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="8">
         <v>63</v>
       </c>
-      <c r="C64" s="23">
+      <c r="C64" s="25">
         <v>100</v>
       </c>
-      <c r="D64" s="24">
-        <v>40</v>
-      </c>
-      <c r="E64" s="24">
+      <c r="D64" s="26">
+        <v>40</v>
+      </c>
+      <c r="E64" s="26">
         <v>80</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G64" s="37" t="s">
@@ -2503,22 +2509,22 @@
       <c r="H64" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
-      <c r="A65" s="12">
+      <c r="A65" s="13">
         <v>72</v>
       </c>
-      <c r="B65" s="13">
+      <c r="B65" s="14">
         <v>63</v>
       </c>
-      <c r="C65" s="27">
+      <c r="C65" s="28">
         <v>100</v>
       </c>
-      <c r="D65" s="24">
+      <c r="D65" s="26">
         <v>50</v>
       </c>
-      <c r="E65" s="24">
+      <c r="E65" s="26">
         <v>81</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="F65" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G65" s="37" t="s">
@@ -2527,22 +2533,22 @@
       <c r="H65" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
-      <c r="A66" s="12">
+      <c r="A66" s="13">
         <v>72</v>
       </c>
-      <c r="B66" s="13">
+      <c r="B66" s="14">
         <v>63</v>
       </c>
-      <c r="C66" s="27">
+      <c r="C66" s="28">
         <v>100</v>
       </c>
-      <c r="D66" s="24">
+      <c r="D66" s="26">
         <v>58</v>
       </c>
-      <c r="E66" s="24">
+      <c r="E66" s="26">
         <v>82</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F66" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G66" s="37" t="s">
@@ -2551,7 +2557,7 @@
       <c r="H66" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
-      <c r="A67" s="28">
+      <c r="A67" s="29">
         <v>72</v>
       </c>
       <c r="B67" s="33">
@@ -2560,13 +2566,13 @@
       <c r="C67" s="30">
         <v>100</v>
       </c>
-      <c r="D67" s="24">
+      <c r="D67" s="26">
         <v>63</v>
       </c>
-      <c r="E67" s="24">
+      <c r="E67" s="26">
         <v>83</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G67" s="37" t="s">
@@ -2575,247 +2581,247 @@
       <c r="H67" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
-      <c r="A68" s="5">
+      <c r="A68" s="6">
         <v>75</v>
       </c>
-      <c r="B68" s="7">
-        <v>16</v>
-      </c>
-      <c r="C68" s="23">
+      <c r="B68" s="8">
+        <v>16</v>
+      </c>
+      <c r="C68" s="25">
         <v>150</v>
       </c>
       <c r="D68" s="32">
         <v>1.5</v>
       </c>
-      <c r="E68" s="24">
+      <c r="E68" s="26">
         <v>70</v>
       </c>
-      <c r="F68" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G68" s="25" t="s">
+      <c r="F68" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G68" s="27" t="s">
         <v>75</v>
       </c>
       <c r="H68" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
-      <c r="A69" s="12">
+      <c r="A69" s="13">
         <v>75</v>
       </c>
-      <c r="B69" s="13">
-        <v>16</v>
-      </c>
-      <c r="C69" s="27">
+      <c r="B69" s="14">
+        <v>16</v>
+      </c>
+      <c r="C69" s="28">
         <v>150</v>
       </c>
-      <c r="D69" s="24">
+      <c r="D69" s="26">
         <v>3</v>
       </c>
-      <c r="E69" s="24">
+      <c r="E69" s="26">
         <v>71</v>
       </c>
-      <c r="F69" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G69" s="25" t="s">
+      <c r="F69" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G69" s="27" t="s">
         <v>76</v>
       </c>
       <c r="H69" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
-      <c r="A70" s="12">
+      <c r="A70" s="13">
         <v>75</v>
       </c>
-      <c r="B70" s="13">
-        <v>16</v>
-      </c>
-      <c r="C70" s="27">
+      <c r="B70" s="14">
+        <v>16</v>
+      </c>
+      <c r="C70" s="28">
         <v>150</v>
       </c>
-      <c r="D70" s="24">
-        <v>5</v>
-      </c>
-      <c r="E70" s="24">
+      <c r="D70" s="26">
+        <v>5</v>
+      </c>
+      <c r="E70" s="26">
         <v>72</v>
       </c>
-      <c r="F70" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G70" s="25" t="s">
+      <c r="F70" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G70" s="27" t="s">
         <v>77</v>
       </c>
       <c r="H70" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
-      <c r="A71" s="12">
+      <c r="A71" s="13">
         <v>75</v>
       </c>
-      <c r="B71" s="13">
-        <v>16</v>
-      </c>
-      <c r="C71" s="27">
+      <c r="B71" s="14">
+        <v>16</v>
+      </c>
+      <c r="C71" s="28">
         <v>150</v>
       </c>
-      <c r="D71" s="24">
+      <c r="D71" s="26">
         <v>8</v>
       </c>
-      <c r="E71" s="24">
+      <c r="E71" s="26">
         <v>73</v>
       </c>
-      <c r="F71" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G71" s="25" t="s">
+      <c r="F71" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G71" s="27" t="s">
         <v>78</v>
       </c>
       <c r="H71" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
-      <c r="A72" s="12">
+      <c r="A72" s="13">
         <v>75</v>
       </c>
-      <c r="B72" s="13">
-        <v>16</v>
-      </c>
-      <c r="C72" s="27">
+      <c r="B72" s="14">
+        <v>16</v>
+      </c>
+      <c r="C72" s="28">
         <v>150</v>
       </c>
-      <c r="D72" s="24">
+      <c r="D72" s="26">
         <v>12</v>
       </c>
-      <c r="E72" s="24">
+      <c r="E72" s="26">
         <v>74</v>
       </c>
-      <c r="F72" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="25" t="s">
+      <c r="F72" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="27" t="s">
         <v>79</v>
       </c>
       <c r="H72" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5">
-      <c r="A73" s="12">
+      <c r="A73" s="13">
         <v>75</v>
       </c>
-      <c r="B73" s="13">
-        <v>16</v>
-      </c>
-      <c r="C73" s="27">
+      <c r="B73" s="14">
+        <v>16</v>
+      </c>
+      <c r="C73" s="28">
         <v>150</v>
       </c>
-      <c r="D73" s="24">
-        <v>16</v>
-      </c>
-      <c r="E73" s="24">
+      <c r="D73" s="26">
+        <v>16</v>
+      </c>
+      <c r="E73" s="26">
         <v>75</v>
       </c>
-      <c r="F73" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G73" s="25" t="s">
+      <c r="F73" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G73" s="27" t="s">
         <v>80</v>
       </c>
       <c r="H73" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
-      <c r="A74" s="12">
+      <c r="A74" s="13">
         <v>75</v>
       </c>
-      <c r="B74" s="13">
-        <v>40</v>
-      </c>
-      <c r="C74" s="27">
+      <c r="B74" s="14">
+        <v>40</v>
+      </c>
+      <c r="C74" s="28">
         <v>150</v>
       </c>
-      <c r="D74" s="24">
+      <c r="D74" s="26">
         <v>12</v>
       </c>
-      <c r="E74" s="24">
+      <c r="E74" s="26">
         <v>74</v>
       </c>
-      <c r="F74" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G74" s="25" t="s">
+      <c r="F74" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G74" s="27" t="s">
         <v>81</v>
       </c>
       <c r="H74" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5">
-      <c r="A75" s="12">
+      <c r="A75" s="13">
         <v>75</v>
       </c>
-      <c r="B75" s="13">
-        <v>40</v>
-      </c>
-      <c r="C75" s="27">
+      <c r="B75" s="14">
+        <v>40</v>
+      </c>
+      <c r="C75" s="28">
         <v>150</v>
       </c>
-      <c r="D75" s="24">
+      <c r="D75" s="26">
         <v>18</v>
       </c>
-      <c r="E75" s="24">
+      <c r="E75" s="26">
         <v>75</v>
       </c>
-      <c r="F75" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G75" s="25" t="s">
+      <c r="F75" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G75" s="27" t="s">
         <v>82</v>
       </c>
       <c r="H75" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5">
-      <c r="A76" s="12">
+      <c r="A76" s="13">
         <v>75</v>
       </c>
-      <c r="B76" s="13">
-        <v>40</v>
-      </c>
-      <c r="C76" s="27">
+      <c r="B76" s="14">
+        <v>40</v>
+      </c>
+      <c r="C76" s="28">
         <v>150</v>
       </c>
-      <c r="D76" s="24">
+      <c r="D76" s="26">
         <v>25</v>
       </c>
-      <c r="E76" s="24">
+      <c r="E76" s="26">
         <v>76</v>
       </c>
-      <c r="F76" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G76" s="25" t="s">
+      <c r="F76" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" s="27" t="s">
         <v>83</v>
       </c>
       <c r="H76" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5">
-      <c r="A77" s="12">
+      <c r="A77" s="13">
         <v>75</v>
       </c>
-      <c r="B77" s="13">
-        <v>40</v>
-      </c>
-      <c r="C77" s="27">
+      <c r="B77" s="14">
+        <v>40</v>
+      </c>
+      <c r="C77" s="28">
         <v>150</v>
       </c>
-      <c r="D77" s="24">
+      <c r="D77" s="26">
         <v>35</v>
       </c>
-      <c r="E77" s="24">
+      <c r="E77" s="26">
         <v>77</v>
       </c>
-      <c r="F77" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G77" s="25" t="s">
+      <c r="F77" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G77" s="27" t="s">
         <v>84</v>
       </c>
       <c r="H77" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5">
-      <c r="A78" s="28">
+      <c r="A78" s="29">
         <v>75</v>
       </c>
       <c r="B78" s="33">
@@ -2824,190 +2830,190 @@
       <c r="C78" s="30">
         <v>150</v>
       </c>
-      <c r="D78" s="24">
-        <v>40</v>
-      </c>
-      <c r="E78" s="24">
+      <c r="D78" s="26">
+        <v>40</v>
+      </c>
+      <c r="E78" s="26">
         <v>78</v>
       </c>
-      <c r="F78" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G78" s="25" t="s">
+      <c r="F78" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G78" s="27" t="s">
         <v>85</v>
       </c>
       <c r="H78" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5">
-      <c r="A79" s="12">
+      <c r="A79" s="13">
         <v>142</v>
       </c>
-      <c r="B79" s="13">
-        <v>16</v>
-      </c>
-      <c r="C79" s="27">
+      <c r="B79" s="14">
+        <v>16</v>
+      </c>
+      <c r="C79" s="28">
         <v>200</v>
       </c>
-      <c r="D79" s="24">
+      <c r="D79" s="26">
         <v>1</v>
       </c>
-      <c r="E79" s="24">
+      <c r="E79" s="26">
         <v>72</v>
       </c>
-      <c r="F79" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G79" s="25" t="s">
+      <c r="F79" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G79" s="27" t="s">
         <v>86</v>
       </c>
       <c r="H79" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5">
-      <c r="A80" s="12">
+      <c r="A80" s="13">
         <v>142</v>
       </c>
-      <c r="B80" s="13">
-        <v>16</v>
-      </c>
-      <c r="C80" s="27">
+      <c r="B80" s="14">
+        <v>16</v>
+      </c>
+      <c r="C80" s="28">
         <v>200</v>
       </c>
-      <c r="D80" s="24">
+      <c r="D80" s="26">
         <v>2</v>
       </c>
-      <c r="E80" s="24">
+      <c r="E80" s="26">
         <v>73</v>
       </c>
-      <c r="F80" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G80" s="25" t="s">
+      <c r="F80" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G80" s="27" t="s">
         <v>87</v>
       </c>
       <c r="H80" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5">
-      <c r="A81" s="12">
+      <c r="A81" s="13">
         <v>142</v>
       </c>
-      <c r="B81" s="13">
-        <v>16</v>
-      </c>
-      <c r="C81" s="27">
+      <c r="B81" s="14">
+        <v>16</v>
+      </c>
+      <c r="C81" s="28">
         <v>200</v>
       </c>
-      <c r="D81" s="24">
+      <c r="D81" s="26">
         <v>3</v>
       </c>
-      <c r="E81" s="24">
+      <c r="E81" s="26">
         <v>74</v>
       </c>
-      <c r="F81" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" s="25" t="s">
+      <c r="F81" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="27" t="s">
         <v>88</v>
       </c>
       <c r="H81" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5">
-      <c r="A82" s="12">
+      <c r="A82" s="13">
         <v>142</v>
       </c>
-      <c r="B82" s="13">
-        <v>16</v>
-      </c>
-      <c r="C82" s="27">
+      <c r="B82" s="14">
+        <v>16</v>
+      </c>
+      <c r="C82" s="28">
         <v>200</v>
       </c>
-      <c r="D82" s="24">
-        <v>5</v>
-      </c>
-      <c r="E82" s="24">
+      <c r="D82" s="26">
+        <v>5</v>
+      </c>
+      <c r="E82" s="26">
         <v>75</v>
       </c>
-      <c r="F82" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G82" s="25" t="s">
+      <c r="F82" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G82" s="27" t="s">
         <v>89</v>
       </c>
       <c r="H82" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5">
-      <c r="A83" s="12">
+      <c r="A83" s="13">
         <v>142</v>
       </c>
-      <c r="B83" s="13">
-        <v>16</v>
-      </c>
-      <c r="C83" s="27">
+      <c r="B83" s="14">
+        <v>16</v>
+      </c>
+      <c r="C83" s="28">
         <v>200</v>
       </c>
-      <c r="D83" s="24">
+      <c r="D83" s="26">
         <v>7</v>
       </c>
-      <c r="E83" s="24">
+      <c r="E83" s="26">
         <v>76</v>
       </c>
-      <c r="F83" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="25" t="s">
+      <c r="F83" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="27" t="s">
         <v>90</v>
       </c>
       <c r="H83" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5">
-      <c r="A84" s="12">
+      <c r="A84" s="13">
         <v>142</v>
       </c>
-      <c r="B84" s="13">
-        <v>16</v>
-      </c>
-      <c r="C84" s="27">
+      <c r="B84" s="14">
+        <v>16</v>
+      </c>
+      <c r="C84" s="28">
         <v>200</v>
       </c>
-      <c r="D84" s="24">
+      <c r="D84" s="26">
         <v>9</v>
       </c>
-      <c r="E84" s="24">
+      <c r="E84" s="26">
         <v>77</v>
       </c>
-      <c r="F84" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G84" s="25" t="s">
+      <c r="F84" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G84" s="27" t="s">
         <v>91</v>
       </c>
       <c r="H84" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5">
-      <c r="A85" s="12">
+      <c r="A85" s="13">
         <v>142</v>
       </c>
-      <c r="B85" s="13">
-        <v>16</v>
-      </c>
-      <c r="C85" s="27">
+      <c r="B85" s="14">
+        <v>16</v>
+      </c>
+      <c r="C85" s="28">
         <v>200</v>
       </c>
-      <c r="D85" s="24">
+      <c r="D85" s="26">
         <v>12</v>
       </c>
-      <c r="E85" s="24">
+      <c r="E85" s="26">
         <v>78</v>
       </c>
-      <c r="F85" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G85" s="25" t="s">
+      <c r="F85" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G85" s="27" t="s">
         <v>92</v>
       </c>
       <c r="H85" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5">
-      <c r="A86" s="28">
+      <c r="A86" s="29">
         <v>142</v>
       </c>
       <c r="B86" s="33">
@@ -3016,13 +3022,13 @@
       <c r="C86" s="30">
         <v>200</v>
       </c>
-      <c r="D86" s="24">
-        <v>16</v>
-      </c>
-      <c r="E86" s="24">
+      <c r="D86" s="26">
+        <v>16</v>
+      </c>
+      <c r="E86" s="26">
         <v>79</v>
       </c>
-      <c r="F86" s="8" t="s">
+      <c r="F86" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G86" s="37" t="s">
@@ -3046,15 +3052,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="10.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="16" width="18.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="16" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="16" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="16" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="16" width="10.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="17" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="18" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="18" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="18" width="9.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -3072,1099 +3078,1099 @@
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="5">
-        <v>16</v>
-      </c>
-      <c r="B2" s="6">
+      <c r="A2" s="6">
+        <v>16</v>
+      </c>
+      <c r="B2" s="7">
         <v>16.4</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="8">
         <v>25</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="9">
+      <c r="A3" s="10">
         <v>12</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="11">
         <v>100</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="11">
         <v>25</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="10">
+      <c r="A4" s="11">
         <v>12</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="11">
         <v>160</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="11">
         <v>25</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>33</v>
       </c>
-      <c r="B5" s="7">
-        <v>16</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="B5" s="8">
+        <v>16</v>
+      </c>
+      <c r="C5" s="8">
         <v>50</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>33</v>
       </c>
-      <c r="B6" s="7">
-        <v>40</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="B6" s="8">
+        <v>40</v>
+      </c>
+      <c r="C6" s="8">
         <v>50</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <v>33</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="8">
         <v>63</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="8">
         <v>50</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>33</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="8">
         <v>160</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="8">
         <v>50</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="5">
-        <v>40</v>
-      </c>
-      <c r="B9" s="7">
-        <v>16</v>
-      </c>
-      <c r="C9" s="7">
+      <c r="A9" s="6">
+        <v>40</v>
+      </c>
+      <c r="B9" s="8">
+        <v>16</v>
+      </c>
+      <c r="C9" s="8">
         <v>80</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="5">
-        <v>40</v>
-      </c>
-      <c r="B10" s="7">
-        <v>40</v>
-      </c>
-      <c r="C10" s="7">
+      <c r="A10" s="6">
+        <v>40</v>
+      </c>
+      <c r="B10" s="8">
+        <v>40</v>
+      </c>
+      <c r="C10" s="8">
         <v>80</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="5">
-        <v>40</v>
-      </c>
-      <c r="B11" s="7">
+      <c r="A11" s="6">
+        <v>40</v>
+      </c>
+      <c r="B11" s="8">
         <v>63</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="8">
         <v>80</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="5">
+      <c r="A12" s="6">
         <v>48</v>
       </c>
-      <c r="B12" s="7">
-        <v>16</v>
-      </c>
-      <c r="C12" s="7">
+      <c r="B12" s="8">
+        <v>16</v>
+      </c>
+      <c r="C12" s="8">
         <v>100</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="5">
+      <c r="A13" s="6">
         <v>48</v>
       </c>
-      <c r="B13" s="7">
-        <v>40</v>
-      </c>
-      <c r="C13" s="7">
+      <c r="B13" s="8">
+        <v>40</v>
+      </c>
+      <c r="C13" s="8">
         <v>100</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="5">
+      <c r="A14" s="6">
         <v>56</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="8">
         <v>100</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="8">
         <v>100</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="5">
+      <c r="A15" s="6">
         <v>48</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="8">
         <v>160</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="8">
         <v>100</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="12">
+      <c r="A16" s="13">
         <v>72</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="14">
         <v>63</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="14">
         <v>100</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="5">
+      <c r="A17" s="6">
         <v>75</v>
       </c>
-      <c r="B17" s="7">
-        <v>16</v>
-      </c>
-      <c r="C17" s="7">
+      <c r="B17" s="8">
+        <v>16</v>
+      </c>
+      <c r="C17" s="8">
         <v>150</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="5">
+      <c r="A18" s="6">
         <v>75</v>
       </c>
-      <c r="B18" s="7">
-        <v>40</v>
-      </c>
-      <c r="C18" s="7">
+      <c r="B18" s="8">
+        <v>40</v>
+      </c>
+      <c r="C18" s="8">
         <v>150</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="9">
+      <c r="A19" s="10">
         <v>142</v>
       </c>
-      <c r="B19" s="10">
-        <v>16</v>
-      </c>
-      <c r="C19" s="10">
+      <c r="B19" s="11">
+        <v>16</v>
+      </c>
+      <c r="C19" s="11">
         <v>200</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
+      <c r="A62" s="15"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="14"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
-      <c r="A65" s="14"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
-      <c r="A66" s="14"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
-      <c r="A67" s="14"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
+      <c r="A67" s="15"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
-      <c r="A69" s="14"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
+      <c r="A69" s="15"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
-      <c r="A70" s="14"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
-      <c r="A71" s="14"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
-      <c r="A72" s="14"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
-      <c r="A73" s="14"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
-      <c r="A74" s="14"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
+      <c r="A74" s="15"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="11"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
-      <c r="A75" s="14"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
+      <c r="A75" s="15"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
-      <c r="A76" s="14"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
+      <c r="A76" s="15"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="11"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
-      <c r="A77" s="14"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
-      <c r="A78" s="14"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
-      <c r="A79" s="14"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
-      <c r="A80" s="14"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
-      <c r="A81" s="14"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
+      <c r="A81" s="15"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
-      <c r="A82" s="14"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
+      <c r="A82" s="15"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
-      <c r="A83" s="14"/>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
+      <c r="A83" s="15"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="11"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
-      <c r="A84" s="14"/>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
+      <c r="A84" s="15"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="11"/>
-      <c r="I84" s="11"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
-      <c r="A85" s="14"/>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
+      <c r="A85" s="15"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="11"/>
-      <c r="I85" s="11"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
-      <c r="A86" s="14"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
+      <c r="A86" s="15"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="15"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="11"/>
-      <c r="I86" s="11"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
-      <c r="A87" s="14"/>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
+      <c r="A87" s="15"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="15"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
